--- a/results/mp/logistic/home-spam/confidence/126/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/126/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,100 +40,112 @@
     <t>name</t>
   </si>
   <si>
+    <t>return</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>return</t>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>waste</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>useless</t>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>filters</t>
   </si>
   <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>filters</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>months</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>grind</t>
   </si>
   <si>
     <t>lid</t>
   </si>
   <si>
-    <t>broken</t>
+    <t>1</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>1</t>
+    <t>rust</t>
   </si>
   <si>
     <t>received</t>
   </si>
   <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
     <t>worked</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>hold</t>
   </si>
   <si>
     <t>small</t>
@@ -145,15 +157,18 @@
     <t>would</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
@@ -178,24 +193,24 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>perfectly</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
@@ -206,9 +221,6 @@
   </si>
   <si>
     <t>well</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -569,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,10 +589,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -638,13 +650,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9245283018867925</v>
+        <v>0.9380530973451328</v>
       </c>
       <c r="C3">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K3">
-        <v>0.84375</v>
+        <v>0.828125</v>
       </c>
       <c r="L3">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M3">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -680,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -688,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9203539823008849</v>
+        <v>0.9245283018867925</v>
       </c>
       <c r="C4">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="D4">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -706,19 +718,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K4">
-        <v>0.7741935483870968</v>
+        <v>0.7634408602150538</v>
       </c>
       <c r="L4">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M4">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -730,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -738,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="D5">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,19 +768,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>0.7423728813559322</v>
+        <v>0.7220338983050848</v>
       </c>
       <c r="L5">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M5">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -780,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -788,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.898989898989899</v>
+        <v>0.875</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>0.7391304347826086</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -830,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -838,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8813559322033898</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="C7">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K7">
-        <v>0.6857585139318886</v>
+        <v>0.6377708978328174</v>
       </c>
       <c r="L7">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="M7">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -880,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>203</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -888,13 +900,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.875</v>
+        <v>0.86</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K8">
-        <v>0.6233766233766234</v>
+        <v>0.5367965367965368</v>
       </c>
       <c r="L8">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>29</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +950,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8076923076923077</v>
+        <v>0.7783783783783784</v>
       </c>
       <c r="C9">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="D9">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K9">
-        <v>0.5757575757575758</v>
+        <v>0.5194805194805194</v>
       </c>
       <c r="L9">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7945945945945946</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1006,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K10">
         <v>0.4736842105263158</v>
@@ -1038,7 +1050,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7169811320754716</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C11">
         <v>38</v>
@@ -1056,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K11">
-        <v>0.3714285714285714</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>110</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7123287671232876</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="C12">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1106,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K12">
-        <v>0.3443017656500802</v>
+        <v>0.32</v>
       </c>
       <c r="L12">
-        <v>429</v>
+        <v>56</v>
       </c>
       <c r="M12">
-        <v>429</v>
+        <v>56</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1130,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>817</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1159,28 +1171,28 @@
         <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K13">
-        <v>0.3423423423423423</v>
+        <v>0.2885852090032154</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>359</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>361</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>73</v>
+        <v>885</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1188,13 +1200,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6764705882352942</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="C14">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D14">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1206,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K14">
-        <v>0.1780821917808219</v>
+        <v>0.173972602739726</v>
       </c>
       <c r="L14">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M14">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1230,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1238,13 +1250,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6592592592592592</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="C15">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D15">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1256,31 +1268,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K15">
-        <v>0.08374384236453201</v>
+        <v>0.09313725490196079</v>
       </c>
       <c r="L15">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1288,13 +1300,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6307692307692307</v>
+        <v>0.6434108527131783</v>
       </c>
       <c r="C16">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="D16">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1306,31 +1318,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K16">
-        <v>0.06266666666666666</v>
+        <v>0.0534045393858478</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M16">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N16">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="O16">
-        <v>0.09999999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>703</v>
+        <v>709</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1338,49 +1350,49 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6132075471698113</v>
+        <v>0.5904761904761905</v>
       </c>
       <c r="C17">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D17">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K17">
-        <v>0.03727506426735219</v>
+        <v>0.04498714652956298</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N17">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="O17">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1388,13 +1400,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5977011494252874</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C18">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1406,31 +1418,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>35</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18">
-        <v>0.03246753246753246</v>
-      </c>
-      <c r="L18">
-        <v>30</v>
-      </c>
-      <c r="M18">
-        <v>35</v>
-      </c>
-      <c r="N18">
-        <v>0.86</v>
-      </c>
-      <c r="O18">
-        <v>0.14</v>
-      </c>
-      <c r="P18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>894</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1438,13 +1426,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5813953488372093</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C19">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="D19">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1456,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1464,13 +1452,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5769230769230769</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="C20">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1482,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1490,13 +1478,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.527027027027027</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C21">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D21">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1508,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1516,13 +1504,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5070422535211268</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1534,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1542,13 +1530,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.504424778761062</v>
+        <v>0.5352112676056338</v>
       </c>
       <c r="C23">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D23">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1560,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1568,13 +1556,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>0.4690265486725664</v>
       </c>
       <c r="C24">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1586,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1594,13 +1582,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4615384615384616</v>
+        <v>0.4271844660194175</v>
       </c>
       <c r="C25">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D25">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1612,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1620,13 +1608,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4368932038834951</v>
+        <v>0.391025641025641</v>
       </c>
       <c r="C26">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D26">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1638,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>58</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1646,13 +1634,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4326923076923077</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="C27">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1664,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1672,13 +1660,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3184357541899441</v>
+        <v>0.3557692307692308</v>
       </c>
       <c r="C28">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D28">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1690,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>122</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1698,13 +1686,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2666666666666667</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="C29">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1716,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>154</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1724,13 +1712,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2641509433962264</v>
+        <v>0.3434343434343434</v>
       </c>
       <c r="C30">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="D30">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1742,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>273</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1750,13 +1738,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2619047619047619</v>
+        <v>0.335195530726257</v>
       </c>
       <c r="C31">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D31">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1768,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>93</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1776,13 +1764,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.255</v>
+        <v>0.2526881720430108</v>
       </c>
       <c r="C32">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D32">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1794,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1802,13 +1790,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2251655629139073</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="C33">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D33">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1820,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>117</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1828,25 +1816,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1783783783783784</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D34">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E34">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>152</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1854,13 +1842,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.173469387755102</v>
+        <v>0.2317880794701987</v>
       </c>
       <c r="C35">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D35">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1872,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>243</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1880,13 +1868,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1441048034934498</v>
+        <v>0.23</v>
       </c>
       <c r="C36">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D36">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1898,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>196</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1906,13 +1894,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1360544217687075</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C37">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D37">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1924,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>635</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1932,25 +1920,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1240208877284595</v>
+        <v>0.2137931034482759</v>
       </c>
       <c r="C38">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="D38">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="E38">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>671</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1958,13 +1946,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1137123745819398</v>
+        <v>0.2006802721088435</v>
       </c>
       <c r="C39">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D39">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1976,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1984,13 +1972,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0975609756097561</v>
+        <v>0.1528384279475982</v>
       </c>
       <c r="C40">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D40">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2002,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>370</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2010,25 +1998,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04856895056374675</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C41">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="D41">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="E41">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>1097</v>
+        <v>630</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2036,25 +2024,155 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.02830188679245283</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="C42">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D42">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E42">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1030</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C43">
+        <v>85</v>
+      </c>
+      <c r="D43">
+        <v>87</v>
+      </c>
+      <c r="E43">
+        <v>0.02</v>
+      </c>
+      <c r="F43">
+        <v>0.98</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.1073170731707317</v>
+      </c>
+      <c r="C44">
+        <v>44</v>
+      </c>
+      <c r="D44">
+        <v>44</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.07868020304568528</v>
+      </c>
+      <c r="C45">
+        <v>31</v>
+      </c>
+      <c r="D45">
+        <v>31</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.05400696864111498</v>
+      </c>
+      <c r="C46">
+        <v>62</v>
+      </c>
+      <c r="D46">
+        <v>71</v>
+      </c>
+      <c r="E46">
+        <v>0.13</v>
+      </c>
+      <c r="F46">
+        <v>0.87</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.03010348071495767</v>
+      </c>
+      <c r="C47">
+        <v>32</v>
+      </c>
+      <c r="D47">
+        <v>41</v>
+      </c>
+      <c r="E47">
+        <v>0.22</v>
+      </c>
+      <c r="F47">
+        <v>0.78</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1031</v>
       </c>
     </row>
   </sheetData>
